--- a/Index_media/ZEUS_MockSheet.xlsx
+++ b/Index_media/ZEUS_MockSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -34,34 +34,97 @@
     <t xml:space="preserve">STOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">asd111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasdddfsherh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hwrjwrhwg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjw5srnbstr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trshrsksyk5r66</t>
+    <t xml:space="preserve">WEBKIT-CI84D2-DB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT DAHUA DVR 8CH + 4 Domos Metálicos 2Mpx + Accesorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receptor inalámbrico de tres canales. Incluye dos TX-200.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-2AE4123TI-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMO HD-TVI 720P-EXT.-IR 100 MTS- ZOOM OPT.23X. DIGITAL 16X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAC-B2A21P-0360B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet Metálica 2Mpx 4 en 1 IR 3.6mm IP67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR-1000-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detector infrarrojo doble exterior Deteccion 11x11m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD4000-S WD-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco Rígido S-ATA 4TB WD Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR-HDMI 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable HDMI 3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR-HDMI 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable HMDI 10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
   </si>
 </sst>
 </file>
@@ -162,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -189,74 +252,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>11</v>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Index_media/ZEUS_MockSheet.xlsx
+++ b/Index_media/ZEUS_MockSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">Detector infrarrojo doble exterior Deteccion 11x11m.</t>
   </si>
   <si>
-    <t xml:space="preserve">96.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">31.00</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">2.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps-12/1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuente 12v1A</t>
   </si>
 </sst>
 </file>
@@ -225,15 +228,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -315,22 +318,22 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -338,30 +341,44 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
